--- a/data/Map107.xlsx
+++ b/data/Map107.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>自動実行</t>
   </si>
@@ -112,11 +112,20 @@
 そんな小さなナイフなんて置いて♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Hey, it feels good, right?
+You've got such a little knife♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ナイフなんかよりその股間についてる武器を握らないと♥
 サキュバスは倒せないわよ？
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;The only weapon you can hold is the one attached to your crotch♥
+There's no way to defeat a succubus, right?
+Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;いいのよ？
 サキュバスに搾られるのが怖いなら、自分で扱けば？
 ほら♥それなら大丈夫でしょ？くす♥</t>
@@ -131,14 +140,29 @@
 あんたそれでもハンターなの？</t>
   </si>
   <si>
+    <t>\ n&lt;\n[3]&gt; Heehee ♥ 
+Just a little teasing made you react like that?
+Can you even call yourself a hunter anymore?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ひとつ言っておくけど、
 『そんなもの』じゃ私たち淫魔は倒せないからね？
 武器は効かないの。もちろん知ってるわよね。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Let me tell you something. 
+You can't defeat a succubus with something like that, right? 
+Weapons don't work. But you know that already.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ま、好きにしなさい。
 もっと抗ってみせてね♥
 雑魚ハンターさん♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I hope you like it. 
+Show me more♥
+ Little succubus hunter♥</t>
   </si>
   <si>
     <t>果物ナイフが置いてある・・・
@@ -603,7 +627,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,354 +635,369 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map107.xlsx
+++ b/data/Map107.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>自動実行</t>
   </si>
@@ -40,8 +40,15 @@
     <t>食堂の鍵を開けた！</t>
   </si>
   <si>
+    <t>Unlocked the door with the Dining Room Key!</t>
+  </si>
+  <si>
     <t>食堂に繋がっているようだ。
 鍵がかかっている・・・</t>
+  </si>
+  <si>
+    <t>This seems to be the door to the dinning room.
+It's locked...</t>
   </si>
   <si>
     <t>ゴミ捨て場の鍵を開けた！</t>
@@ -78,6 +85,10 @@
 食材も勿体ないから見つけたら止めてね！</t>
   </si>
   <si>
+    <t>シィナに料理をさせないで！
+あんなの食べたら精奴隷さんが死んじゃうよ！食材も勿体ないから見つけたら止めてね！</t>
+  </si>
+  <si>
     <t>EV014</t>
   </si>
   <si>
@@ -93,9 +104,17 @@
 危ないわねー。</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;あら・・・
+果物ナイフなんか持っちゃって。危ないわねー。</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;そんな物騒なもの置いて？
 ねぇ、私と気持ちいいことしましょう♥
 ほら見て♥</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;そんな物騒なもの置いて？
+ねぇ、私と気持ちいいことしましょう♥ほら見て♥</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ふーり♥ふーり♥
@@ -627,7 +646,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,369 +654,423 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map107.xlsx
+++ b/data/Map107.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>自動実行</t>
   </si>
@@ -31,6 +31,13 @@
 出来るなら通りたくない・・・</t>
   </si>
   <si>
+    <t>変数203（ARGP攻撃種類）
+1斬　2打撃　3水　4火　5雷
+6誘惑　7食べ物
+特殊206（個別攻撃種類）
+1リンゴ　2皿　3卵</t>
+  </si>
+  <si>
     <t>カチコチに凍っている・・・</t>
   </si>
   <si>
@@ -92,11 +99,20 @@
     <t>EV014</t>
   </si>
   <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
     <t>果物ナイフか・・・
 一応武器として使えるかもしれない。</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;みーつけた♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;みーつけた♥</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;あら・・・
@@ -104,7 +120,7 @@
 危ないわねー。</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;あら・・・
+    <t>\n&lt;Lily&gt;あら・・・
 果物ナイフなんか持っちゃって。危ないわねー。</t>
   </si>
   <si>
@@ -113,8 +129,14 @@
 ほら見て♥</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;そんな物騒なもの置いて？
+    <t>\n&lt;Lily&gt;そんな物騒なもの置いて？
 ねぇ、私と気持ちいいことしましょう♥ほら見て♥</t>
+  </si>
+  <si>
+    <t>ーーーーー待機or攻撃アニメ選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ふーり♥ふーり♥
@@ -145,6 +167,9 @@
 Heehee♥</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;いいのよ？
 サキュバスに搾られるのが怖いなら、自分で扱けば？
 ほら♥それなら大丈夫でしょ？くす♥</t>
@@ -152,6 +177,9 @@
   <si>
     <t>\n&lt;\n[3]&gt;あはっ♥その気になってくれたぁ？
 じゃあ私のこと見ながらオナニーして見せて♥</t>
+  </si>
+  <si>
+    <t>--------ここからクリア------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;くすくす♥
@@ -646,7 +674,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,423 +682,599 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
